--- a/Bài tập Tester Buổi 2.xlsx
+++ b/Bài tập Tester Buổi 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc84efd737fd29ab/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{AAD235C1-5C78-431D-99A7-D233B8EA6C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6522AF7-A9DE-4808-BE79-ADA53ED455B5}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{AAD235C1-5C78-431D-99A7-D233B8EA6C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{564F84BD-812C-4B02-9A21-034C768D9480}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{235FCEDE-0843-4032-8256-35D1816EACD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{235FCEDE-0843-4032-8256-35D1816EACD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -268,10 +268,43 @@
     <t>t = 09:30</t>
   </si>
   <si>
+    <t>t = 15:59</t>
+  </si>
+  <si>
     <t>t = 16:00</t>
   </si>
   <si>
     <t>t = 19:30</t>
+  </si>
+  <si>
+    <t>t = 19:31</t>
+  </si>
+  <si>
+    <t>t = 07:00</t>
+  </si>
+  <si>
+    <t>t = 25:00</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>giờ cao điểm</t>
+  </si>
+  <si>
+    <t>giời bình thường</t>
+  </si>
+  <si>
+    <t>không hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -380,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -388,9 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,9 +456,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,98 +886,98 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>0.03</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>0.05</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1014,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4E5EB-C3FD-43C1-BC4C-2C6D8C288534}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1089,112 +1128,112 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="5">
         <v>12345</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>123456</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="6">
         <v>12345678901</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
@@ -1211,7 +1250,7 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>12345</v>
       </c>
       <c r="C26" t="s">
@@ -1222,7 +1261,7 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
@@ -1233,7 +1272,7 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>123456</v>
       </c>
       <c r="C28" t="s">
@@ -1244,7 +1283,7 @@
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>12345678901</v>
       </c>
       <c r="C29" t="s">
@@ -1258,16 +1297,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF213CF8-30F7-427C-923C-F0524906EF7F}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="23.36328125" customWidth="1"/>
@@ -1335,55 +1374,55 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -1391,63 +1430,86 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1">
-      <c r="A18" s="8" t="s">
+      <c r="F16" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="13">
+        <v>7</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="20">
+        <v>8</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1">
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1458,48 +1520,92 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
-        <v>12345</v>
+      <c r="B26" s="21">
+        <v>0.39513888888888887</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
+      <c r="B27" s="21">
+        <v>0.39583333333333331</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
-        <v>123456</v>
+      <c r="B28" s="21">
+        <v>0.66597222222222219</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
-        <v>12345678901</v>
+      <c r="B29" s="21">
+        <v>0.66666666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="21">
+        <v>0.8125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
